--- a/EstimatedActiveCasesOverTimeByCounty/2021-01-22.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-01-22.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="307">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 01/21/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 01/22/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Active Cases 01-21</t>
+  </si>
+  <si>
+    <t>Active Cases 01-22</t>
   </si>
   <si>
     <t/>
@@ -1088,6 +1091,7 @@
     <col min="41" max="41" width="12.0" customWidth="true"/>
     <col min="42" max="42" width="12.0" customWidth="true"/>
     <col min="43" max="43" width="12.0" customWidth="true"/>
+    <col min="44" max="44" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1230,13 +1234,16 @@
       <c r="AQ3" t="s" s="10">
         <v>44</v>
       </c>
+      <c r="AR3" t="s" s="10">
+        <v>45</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1360,14 +1367,17 @@
       </c>
       <c r="AQ4" t="n">
         <v>514.0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>510.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -1491,14 +1501,17 @@
       </c>
       <c r="AQ5" t="n">
         <v>227.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>229.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -1622,14 +1635,17 @@
       </c>
       <c r="AQ6" t="n">
         <v>1112.0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>985.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -1753,14 +1769,17 @@
       </c>
       <c r="AQ7" t="n">
         <v>152.0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -1884,14 +1903,17 @@
       </c>
       <c r="AQ8" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -2015,14 +2037,17 @@
       </c>
       <c r="AQ9" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -2146,14 +2171,17 @@
       </c>
       <c r="AQ10" t="n">
         <v>428.0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>370.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -2277,14 +2305,17 @@
       </c>
       <c r="AQ11" t="n">
         <v>173.0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>159.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -2408,14 +2439,17 @@
       </c>
       <c r="AQ12" t="n">
         <v>27.0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -2539,14 +2573,17 @@
       </c>
       <c r="AQ13" t="n">
         <v>91.0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -2670,14 +2707,17 @@
       </c>
       <c r="AQ14" t="n">
         <v>559.0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>585.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -2801,14 +2841,17 @@
       </c>
       <c r="AQ15" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -2932,14 +2975,17 @@
       </c>
       <c r="AQ16" t="n">
         <v>361.0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>347.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -3063,14 +3109,17 @@
       </c>
       <c r="AQ17" t="n">
         <v>2475.0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>2360.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -3194,14 +3243,17 @@
       </c>
       <c r="AQ18" t="n">
         <v>30832.0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>32123.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -3325,14 +3377,17 @@
       </c>
       <c r="AQ19" t="n">
         <v>30.0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -3455,15 +3510,18 @@
         <v>0.0</v>
       </c>
       <c r="AQ20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -3587,14 +3645,17 @@
       </c>
       <c r="AQ21" t="n">
         <v>181.0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -3718,14 +3779,17 @@
       </c>
       <c r="AQ22" t="n">
         <v>353.0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>395.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -3849,14 +3913,17 @@
       </c>
       <c r="AQ23" t="n">
         <v>5591.0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>5576.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -3980,14 +4047,17 @@
       </c>
       <c r="AQ24" t="n">
         <v>1747.0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1673.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -4111,14 +4181,17 @@
       </c>
       <c r="AQ25" t="n">
         <v>75.0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -4242,14 +4315,17 @@
       </c>
       <c r="AQ26" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -4373,14 +4449,17 @@
       </c>
       <c r="AQ27" t="n">
         <v>76.0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>75.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -4504,14 +4583,17 @@
       </c>
       <c r="AQ28" t="n">
         <v>525.0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>516.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -4635,14 +4717,17 @@
       </c>
       <c r="AQ29" t="n">
         <v>153.0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>145.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -4766,14 +4851,17 @@
       </c>
       <c r="AQ30" t="n">
         <v>237.0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>240.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -4897,14 +4985,17 @@
       </c>
       <c r="AQ31" t="n">
         <v>271.0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>261.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -5028,14 +5119,17 @@
       </c>
       <c r="AQ32" t="n">
         <v>111.0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -5159,14 +5253,17 @@
       </c>
       <c r="AQ33" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -5290,14 +5387,17 @@
       </c>
       <c r="AQ34" t="n">
         <v>4517.0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>4608.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -5421,14 +5521,17 @@
       </c>
       <c r="AQ35" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -5552,14 +5655,17 @@
       </c>
       <c r="AQ36" t="n">
         <v>20.0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -5683,14 +5789,17 @@
       </c>
       <c r="AQ37" t="n">
         <v>23.0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -5814,14 +5923,17 @@
       </c>
       <c r="AQ38" t="n">
         <v>26.0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -5945,14 +6057,17 @@
       </c>
       <c r="AQ39" t="n">
         <v>454.0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>323.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -6076,14 +6191,17 @@
       </c>
       <c r="AQ40" t="n">
         <v>145.0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>165.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -6207,14 +6325,17 @@
       </c>
       <c r="AQ41" t="n">
         <v>48.0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -6338,14 +6459,17 @@
       </c>
       <c r="AQ42" t="n">
         <v>34.0</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>39.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -6469,14 +6593,17 @@
       </c>
       <c r="AQ43" t="n">
         <v>12.0</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -6599,15 +6726,18 @@
         <v>38.0</v>
       </c>
       <c r="AQ44" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="AR44" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -6731,14 +6861,17 @@
       </c>
       <c r="AQ45" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -6862,14 +6995,17 @@
       </c>
       <c r="AQ46" t="n">
         <v>4696.0</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>4807.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -6993,14 +7129,17 @@
       </c>
       <c r="AQ47" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -7124,14 +7263,17 @@
       </c>
       <c r="AQ48" t="n">
         <v>96.0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -7255,14 +7397,17 @@
       </c>
       <c r="AQ49" t="n">
         <v>722.0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>725.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -7386,14 +7531,17 @@
       </c>
       <c r="AQ50" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -7517,14 +7665,17 @@
       </c>
       <c r="AQ51" t="n">
         <v>21.0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -7648,14 +7799,17 @@
       </c>
       <c r="AQ52" t="n">
         <v>147.0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>172.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -7779,14 +7933,17 @@
       </c>
       <c r="AQ53" t="n">
         <v>655.0</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>632.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -7909,15 +8066,18 @@
         <v>4.0</v>
       </c>
       <c r="AQ54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AR54" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -8040,15 +8200,18 @@
         <v>0.0</v>
       </c>
       <c r="AQ55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR55" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -8171,15 +8334,18 @@
         <v>0.0</v>
       </c>
       <c r="AQ56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR56" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -8303,14 +8469,17 @@
       </c>
       <c r="AQ57" t="n">
         <v>27.0</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -8434,14 +8603,17 @@
       </c>
       <c r="AQ58" t="n">
         <v>27.0</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -8564,15 +8736,18 @@
         <v>0.0</v>
       </c>
       <c r="AQ59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR59" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -8696,14 +8871,17 @@
       </c>
       <c r="AQ60" t="n">
         <v>40060.0</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>39394.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -8827,14 +9005,17 @@
       </c>
       <c r="AQ61" t="n">
         <v>73.0</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -8958,14 +9139,17 @@
       </c>
       <c r="AQ62" t="n">
         <v>90.0</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -9089,14 +9273,17 @@
       </c>
       <c r="AQ63" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -9220,14 +9407,17 @@
       </c>
       <c r="AQ64" t="n">
         <v>14319.0</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>14823.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -9351,14 +9541,17 @@
       </c>
       <c r="AQ65" t="n">
         <v>108.0</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -9482,14 +9675,17 @@
       </c>
       <c r="AQ66" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -9613,14 +9809,17 @@
       </c>
       <c r="AQ67" t="n">
         <v>171.0</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>145.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -9744,14 +9943,17 @@
       </c>
       <c r="AQ68" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -9875,14 +10077,17 @@
       </c>
       <c r="AQ69" t="n">
         <v>153.0</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -10006,14 +10211,17 @@
       </c>
       <c r="AQ70" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -10137,14 +10345,17 @@
       </c>
       <c r="AQ71" t="n">
         <v>1345.0</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1561.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -10267,15 +10478,18 @@
         <v>5.0</v>
       </c>
       <c r="AQ72" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AR72" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -10399,14 +10613,17 @@
       </c>
       <c r="AQ73" t="n">
         <v>864.0</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>946.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -10530,14 +10747,17 @@
       </c>
       <c r="AQ74" t="n">
         <v>34943.0</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>35021.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -10661,14 +10881,17 @@
       </c>
       <c r="AQ75" t="n">
         <v>48.0</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -10792,14 +11015,17 @@
       </c>
       <c r="AQ76" t="n">
         <v>152.0</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -10923,14 +11149,17 @@
       </c>
       <c r="AQ77" t="n">
         <v>136.0</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -11054,14 +11283,17 @@
       </c>
       <c r="AQ78" t="n">
         <v>143.0</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>150.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -11185,14 +11417,17 @@
       </c>
       <c r="AQ79" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -11316,14 +11551,17 @@
       </c>
       <c r="AQ80" t="n">
         <v>53.0</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -11446,15 +11684,18 @@
         <v>2.0</v>
       </c>
       <c r="AQ81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AR81" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -11578,14 +11819,17 @@
       </c>
       <c r="AQ82" t="n">
         <v>14030.0</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>13970.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B83" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -11709,14 +11953,17 @@
       </c>
       <c r="AQ83" t="n">
         <v>36.0</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -11840,14 +12087,17 @@
       </c>
       <c r="AQ84" t="n">
         <v>58.0</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -11971,14 +12221,17 @@
       </c>
       <c r="AQ85" t="n">
         <v>144.0</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>111.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -12102,14 +12355,17 @@
       </c>
       <c r="AQ86" t="n">
         <v>25.0</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -12233,14 +12489,17 @@
       </c>
       <c r="AQ87" t="n">
         <v>7149.0</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>7314.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -12364,14 +12623,17 @@
       </c>
       <c r="AQ88" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -12495,14 +12757,17 @@
       </c>
       <c r="AQ89" t="n">
         <v>209.0</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>200.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -12626,14 +12891,17 @@
       </c>
       <c r="AQ90" t="n">
         <v>2.0</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -12756,15 +13024,18 @@
         <v>19.0</v>
       </c>
       <c r="AQ91" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AR91" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -12888,14 +13159,17 @@
       </c>
       <c r="AQ92" t="n">
         <v>191.0</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>186.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B93" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -13019,14 +13293,17 @@
       </c>
       <c r="AQ93" t="n">
         <v>88.0</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -13150,14 +13427,17 @@
       </c>
       <c r="AQ94" t="n">
         <v>584.0</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>473.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -13281,14 +13561,17 @@
       </c>
       <c r="AQ95" t="n">
         <v>2894.0</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>2882.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -13412,14 +13695,17 @@
       </c>
       <c r="AQ96" t="n">
         <v>40.0</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B97" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -13543,14 +13829,17 @@
       </c>
       <c r="AQ97" t="n">
         <v>859.0</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>827.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B98" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -13674,14 +13963,17 @@
       </c>
       <c r="AQ98" t="n">
         <v>203.0</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>214.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -13805,14 +14097,17 @@
       </c>
       <c r="AQ99" t="n">
         <v>92.0</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>94.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B100" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -13936,14 +14231,17 @@
       </c>
       <c r="AQ100" t="n">
         <v>90.0</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -14067,14 +14365,17 @@
       </c>
       <c r="AQ101" t="n">
         <v>43.0</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B102" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -14198,14 +14499,17 @@
       </c>
       <c r="AQ102" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B103" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -14329,14 +14633,17 @@
       </c>
       <c r="AQ103" t="n">
         <v>850.0</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>866.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B104" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -14460,14 +14767,17 @@
       </c>
       <c r="AQ104" t="n">
         <v>51362.0</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>48039.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B105" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -14591,14 +14901,17 @@
       </c>
       <c r="AQ105" t="n">
         <v>208.0</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>251.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B106" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -14722,14 +15035,17 @@
       </c>
       <c r="AQ106" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B107" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -14853,14 +15169,17 @@
       </c>
       <c r="AQ107" t="n">
         <v>17.0</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B108" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -14984,14 +15303,17 @@
       </c>
       <c r="AQ108" t="n">
         <v>2575.0</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>2664.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B109" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -15115,14 +15437,17 @@
       </c>
       <c r="AQ109" t="n">
         <v>85.0</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B110" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -15246,14 +15571,17 @@
       </c>
       <c r="AQ110" t="n">
         <v>1609.0</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1605.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B111" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -15377,14 +15705,17 @@
       </c>
       <c r="AQ111" t="n">
         <v>1883.0</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1985.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -15508,14 +15839,17 @@
       </c>
       <c r="AQ112" t="n">
         <v>161.0</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>184.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B113" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -15639,14 +15973,17 @@
       </c>
       <c r="AQ113" t="n">
         <v>110.0</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B114" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -15770,14 +16107,17 @@
       </c>
       <c r="AQ114" t="n">
         <v>250.0</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>267.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B115" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -15901,14 +16241,17 @@
       </c>
       <c r="AQ115" t="n">
         <v>107.0</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>124.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B116" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -16032,14 +16375,17 @@
       </c>
       <c r="AQ116" t="n">
         <v>131.0</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>139.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B117" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -16163,14 +16509,17 @@
       </c>
       <c r="AQ117" t="n">
         <v>289.0</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>267.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B118" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -16294,14 +16643,17 @@
       </c>
       <c r="AQ118" t="n">
         <v>22.0</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B119" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -16424,15 +16776,18 @@
         <v>668.0</v>
       </c>
       <c r="AQ119" t="n">
+        <v>713.0</v>
+      </c>
+      <c r="AR119" t="n">
         <v>713.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -16556,14 +16911,17 @@
       </c>
       <c r="AQ120" t="n">
         <v>81.0</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -16686,15 +17044,18 @@
         <v>14.0</v>
       </c>
       <c r="AQ121" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AR121" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -16818,14 +17179,17 @@
       </c>
       <c r="AQ122" t="n">
         <v>40.0</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -16949,14 +17313,17 @@
       </c>
       <c r="AQ123" t="n">
         <v>62.0</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>91.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -17080,14 +17447,17 @@
       </c>
       <c r="AQ124" t="n">
         <v>170.0</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>168.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B125" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -17211,14 +17581,17 @@
       </c>
       <c r="AQ125" t="n">
         <v>9.0</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B126" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -17342,14 +17715,17 @@
       </c>
       <c r="AQ126" t="n">
         <v>3494.0</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>3450.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B127" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -17473,14 +17849,17 @@
       </c>
       <c r="AQ127" t="n">
         <v>127.0</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>125.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B128" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -17604,14 +17983,17 @@
       </c>
       <c r="AQ128" t="n">
         <v>539.0</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>534.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B129" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -17735,14 +18117,17 @@
       </c>
       <c r="AQ129" t="n">
         <v>965.0</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1023.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B130" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -17866,14 +18251,17 @@
       </c>
       <c r="AQ130" t="n">
         <v>203.0</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>211.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B131" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -17997,14 +18385,17 @@
       </c>
       <c r="AQ131" t="n">
         <v>47.0</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B132" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -18128,14 +18519,17 @@
       </c>
       <c r="AQ132" t="n">
         <v>578.0</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>630.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B133" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -18259,14 +18653,17 @@
       </c>
       <c r="AQ133" t="n">
         <v>210.0</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>204.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B134" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -18390,14 +18787,17 @@
       </c>
       <c r="AQ134" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B135" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -18520,15 +18920,18 @@
         <v>2.0</v>
       </c>
       <c r="AQ135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR135" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B136" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -18652,14 +19055,17 @@
       </c>
       <c r="AQ136" t="n">
         <v>230.0</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>257.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B137" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -18783,14 +19189,17 @@
       </c>
       <c r="AQ137" t="n">
         <v>25.0</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B138" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -18913,15 +19322,18 @@
         <v>5.0</v>
       </c>
       <c r="AQ138" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AR138" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B139" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -19044,15 +19456,18 @@
         <v>18.0</v>
       </c>
       <c r="AQ139" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="AR139" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B140" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -19176,14 +19591,17 @@
       </c>
       <c r="AQ140" t="n">
         <v>248.0</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>254.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B141" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -19306,15 +19724,18 @@
         <v>4.0</v>
       </c>
       <c r="AQ141" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AR141" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B142" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -19438,14 +19859,17 @@
       </c>
       <c r="AQ142" t="n">
         <v>1010.0</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1023.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B143" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -19569,14 +19993,17 @@
       </c>
       <c r="AQ143" t="n">
         <v>98.0</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>97.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B144" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -19700,14 +20127,17 @@
       </c>
       <c r="AQ144" t="n">
         <v>167.0</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>176.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B145" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -19830,15 +20260,18 @@
         <v>63.0</v>
       </c>
       <c r="AQ145" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AR145" t="n">
         <v>63.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B146" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -19962,14 +20395,17 @@
       </c>
       <c r="AQ146" t="n">
         <v>79.0</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B147" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -20093,14 +20529,17 @@
       </c>
       <c r="AQ147" t="n">
         <v>210.0</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>214.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B148" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -20224,14 +20663,17 @@
       </c>
       <c r="AQ148" t="n">
         <v>94.0</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B149" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -20354,15 +20796,18 @@
         <v>410.0</v>
       </c>
       <c r="AQ149" t="n">
+        <v>533.0</v>
+      </c>
+      <c r="AR149" t="n">
         <v>533.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B150" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -20486,14 +20931,17 @@
       </c>
       <c r="AQ150" t="n">
         <v>121.0</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>128.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B151" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -20617,14 +21065,17 @@
       </c>
       <c r="AQ151" t="n">
         <v>23.0</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B152" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -20748,14 +21199,17 @@
       </c>
       <c r="AQ152" t="n">
         <v>143.0</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>123.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B153" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -20879,14 +21333,17 @@
       </c>
       <c r="AQ153" t="n">
         <v>138.0</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>155.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B154" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -21009,15 +21466,18 @@
         <v>0.0</v>
       </c>
       <c r="AQ154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B155" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -21141,14 +21601,17 @@
       </c>
       <c r="AQ155" t="n">
         <v>2908.0</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>2807.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B156" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -21272,14 +21735,17 @@
       </c>
       <c r="AQ156" t="n">
         <v>16.0</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B157" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -21403,14 +21869,17 @@
       </c>
       <c r="AQ157" t="n">
         <v>30.0</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B158" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -21534,14 +22003,17 @@
       </c>
       <c r="AQ158" t="n">
         <v>1087.0</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1075.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B159" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -21664,15 +22136,18 @@
         <v>7.0</v>
       </c>
       <c r="AQ159" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AR159" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B160" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -21796,14 +22271,17 @@
       </c>
       <c r="AQ160" t="n">
         <v>51.0</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>50.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B161" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -21927,14 +22405,17 @@
       </c>
       <c r="AQ161" t="n">
         <v>47.0</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B162" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -22058,14 +22539,17 @@
       </c>
       <c r="AQ162" t="n">
         <v>19.0</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B163" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -22189,14 +22673,17 @@
       </c>
       <c r="AQ163" t="n">
         <v>68.0</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B164" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -22320,14 +22807,17 @@
       </c>
       <c r="AQ164" t="n">
         <v>246.0</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>230.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B165" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -22451,14 +22941,17 @@
       </c>
       <c r="AQ165" t="n">
         <v>1459.0</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1479.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B166" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -22582,14 +23075,17 @@
       </c>
       <c r="AQ166" t="n">
         <v>217.0</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>207.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B167" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -22713,14 +23209,17 @@
       </c>
       <c r="AQ167" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B168" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -22844,14 +23343,17 @@
       </c>
       <c r="AQ168" t="n">
         <v>1670.0</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1899.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B169" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -22974,15 +23476,18 @@
         <v>33.0</v>
       </c>
       <c r="AQ169" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="AR169" t="n">
         <v>69.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B170" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -23106,14 +23611,17 @@
       </c>
       <c r="AQ170" t="n">
         <v>88.0</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>92.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B171" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -23237,14 +23745,17 @@
       </c>
       <c r="AQ171" t="n">
         <v>34.0</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B172" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -23368,14 +23879,17 @@
       </c>
       <c r="AQ172" t="n">
         <v>47.0</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B173" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -23499,14 +24013,17 @@
       </c>
       <c r="AQ173" t="n">
         <v>17319.0</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>17529.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B174" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -23630,14 +24147,17 @@
       </c>
       <c r="AQ174" t="n">
         <v>35.0</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B175" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -23761,14 +24281,17 @@
       </c>
       <c r="AQ175" t="n">
         <v>44.0</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -23891,15 +24414,18 @@
         <v>4.0</v>
       </c>
       <c r="AQ176" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AR176" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B177" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -24023,14 +24549,17 @@
       </c>
       <c r="AQ177" t="n">
         <v>158.0</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>191.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B178" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -24154,14 +24683,17 @@
       </c>
       <c r="AQ178" t="n">
         <v>737.0</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>826.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B179" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -24284,15 +24816,18 @@
         <v>32.0</v>
       </c>
       <c r="AQ179" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="AR179" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B180" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -24416,14 +24951,17 @@
       </c>
       <c r="AQ180" t="n">
         <v>260.0</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>268.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B181" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -24547,14 +25085,17 @@
       </c>
       <c r="AQ181" t="n">
         <v>3090.0</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>3137.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B182" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -24678,14 +25219,17 @@
       </c>
       <c r="AQ182" t="n">
         <v>54.0</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B183" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -24809,14 +25353,17 @@
       </c>
       <c r="AQ183" t="n">
         <v>21.0</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B184" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -24940,14 +25487,17 @@
       </c>
       <c r="AQ184" t="n">
         <v>1265.0</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1328.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B185" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -25071,14 +25621,17 @@
       </c>
       <c r="AQ185" t="n">
         <v>95.0</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B186" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -25202,14 +25755,17 @@
       </c>
       <c r="AQ186" t="n">
         <v>42.0</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B187" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -25333,14 +25889,17 @@
       </c>
       <c r="AQ187" t="n">
         <v>643.0</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>702.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B188" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -25464,14 +26023,17 @@
       </c>
       <c r="AQ188" t="n">
         <v>24.0</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B189" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -25594,15 +26156,18 @@
         <v>0.0</v>
       </c>
       <c r="AQ189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR189" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B190" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -25726,14 +26291,17 @@
       </c>
       <c r="AQ190" t="n">
         <v>331.0</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>281.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B191" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -25857,14 +26425,17 @@
       </c>
       <c r="AQ191" t="n">
         <v>1146.0</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1204.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B192" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -25988,14 +26559,17 @@
       </c>
       <c r="AQ192" t="n">
         <v>23.0</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B193" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -26118,15 +26692,18 @@
         <v>230.0</v>
       </c>
       <c r="AQ193" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="AR193" t="n">
         <v>216.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B194" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -26250,14 +26827,17 @@
       </c>
       <c r="AQ194" t="n">
         <v>1704.0</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1808.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B195" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -26381,14 +26961,17 @@
       </c>
       <c r="AQ195" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B196" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -26512,14 +27095,17 @@
       </c>
       <c r="AQ196" t="n">
         <v>18.0</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B197" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -26643,14 +27229,17 @@
       </c>
       <c r="AQ197" t="n">
         <v>37.0</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B198" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -26774,14 +27363,17 @@
       </c>
       <c r="AQ198" t="n">
         <v>77.0</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>111.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B199" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -26905,14 +27497,17 @@
       </c>
       <c r="AQ199" t="n">
         <v>85.0</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>72.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B200" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -27036,14 +27631,17 @@
       </c>
       <c r="AQ200" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B201" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -27167,14 +27765,17 @@
       </c>
       <c r="AQ201" t="n">
         <v>118.0</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B202" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -27298,14 +27899,17 @@
       </c>
       <c r="AQ202" t="n">
         <v>380.0</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>455.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B203" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -27429,14 +28033,17 @@
       </c>
       <c r="AQ203" t="n">
         <v>33.0</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B204" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -27560,14 +28167,17 @@
       </c>
       <c r="AQ204" t="n">
         <v>108.0</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>151.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B205" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -27691,14 +28301,17 @@
       </c>
       <c r="AQ205" t="n">
         <v>11.0</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B206" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -27822,14 +28435,17 @@
       </c>
       <c r="AQ206" t="n">
         <v>31.0</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B207" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -27953,14 +28569,17 @@
       </c>
       <c r="AQ207" t="n">
         <v>66.0</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B208" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -28083,15 +28702,18 @@
         <v>263.0</v>
       </c>
       <c r="AQ208" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="AR208" t="n">
         <v>263.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B209" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -28215,14 +28837,17 @@
       </c>
       <c r="AQ209" t="n">
         <v>59.0</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B210" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -28346,14 +28971,17 @@
       </c>
       <c r="AQ210" t="n">
         <v>7.0</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B211" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -28477,14 +29105,17 @@
       </c>
       <c r="AQ211" t="n">
         <v>66.0</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B212" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -28608,14 +29239,17 @@
       </c>
       <c r="AQ212" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B213" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -28739,14 +29373,17 @@
       </c>
       <c r="AQ213" t="n">
         <v>127.0</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>138.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B214" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -28870,14 +29507,17 @@
       </c>
       <c r="AQ214" t="n">
         <v>5.0</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B215" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -29001,14 +29641,17 @@
       </c>
       <c r="AQ215" t="n">
         <v>5048.0</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>5044.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B216" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -29132,14 +29775,17 @@
       </c>
       <c r="AQ216" t="n">
         <v>47.0</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B217" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -29263,14 +29909,17 @@
       </c>
       <c r="AQ217" t="n">
         <v>1153.0</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1170.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B218" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -29394,14 +30043,17 @@
       </c>
       <c r="AQ218" t="n">
         <v>13.0</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B219" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -29525,14 +30177,17 @@
       </c>
       <c r="AQ219" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B220" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -29656,14 +30311,17 @@
       </c>
       <c r="AQ220" t="n">
         <v>6.0</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B221" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -29787,14 +30445,17 @@
       </c>
       <c r="AQ221" t="n">
         <v>32.0</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B222" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -29918,14 +30579,17 @@
       </c>
       <c r="AQ222" t="n">
         <v>42.0</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B223" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -30049,14 +30713,17 @@
       </c>
       <c r="AQ223" t="n">
         <v>53924.0</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>53366.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B224" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -30180,14 +30847,17 @@
       </c>
       <c r="AQ224" t="n">
         <v>2573.0</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>2524.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B225" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -30311,14 +30981,17 @@
       </c>
       <c r="AQ225" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B226" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -30442,14 +31115,17 @@
       </c>
       <c r="AQ226" t="n">
         <v>97.0</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B227" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -30573,14 +31249,17 @@
       </c>
       <c r="AQ227" t="n">
         <v>4.0</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B228" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -30704,14 +31383,17 @@
       </c>
       <c r="AQ228" t="n">
         <v>78.0</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B229" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -30835,14 +31517,17 @@
       </c>
       <c r="AQ229" t="n">
         <v>1244.0</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1296.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B230" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -30966,14 +31651,17 @@
       </c>
       <c r="AQ230" t="n">
         <v>5914.0</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>5920.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B231" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -31097,14 +31785,17 @@
       </c>
       <c r="AQ231" t="n">
         <v>49.0</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B232" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -31228,14 +31919,17 @@
       </c>
       <c r="AQ232" t="n">
         <v>70.0</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B233" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -31359,14 +32053,17 @@
       </c>
       <c r="AQ233" t="n">
         <v>163.0</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>186.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B234" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -31490,14 +32187,17 @@
       </c>
       <c r="AQ234" t="n">
         <v>27.0</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B235" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -31621,14 +32321,17 @@
       </c>
       <c r="AQ235" t="n">
         <v>307.0</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>295.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B236" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -31751,15 +32454,18 @@
         <v>1327.0</v>
       </c>
       <c r="AQ236" t="n">
+        <v>1337.0</v>
+      </c>
+      <c r="AR236" t="n">
         <v>1337.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B237" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -31882,15 +32588,18 @@
         <v>1123.0</v>
       </c>
       <c r="AQ237" t="n">
+        <v>1112.0</v>
+      </c>
+      <c r="AR237" t="n">
         <v>1112.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B238" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -32014,14 +32723,17 @@
       </c>
       <c r="AQ238" t="n">
         <v>478.0</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>533.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B239" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -32145,14 +32857,17 @@
       </c>
       <c r="AQ239" t="n">
         <v>918.0</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>878.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -32276,14 +32991,17 @@
       </c>
       <c r="AQ240" t="n">
         <v>313.0</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>304.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B241" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -32407,14 +33125,17 @@
       </c>
       <c r="AQ241" t="n">
         <v>116.0</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>110.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B242" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -32538,14 +33259,17 @@
       </c>
       <c r="AQ242" t="n">
         <v>129.0</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>121.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B243" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -32669,14 +33393,17 @@
       </c>
       <c r="AQ243" t="n">
         <v>9636.0</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>10100.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B244" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -32800,14 +33527,17 @@
       </c>
       <c r="AQ244" t="n">
         <v>252.0</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>288.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B245" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -32931,14 +33661,17 @@
       </c>
       <c r="AQ245" t="n">
         <v>44.0</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B246" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -33062,14 +33795,17 @@
       </c>
       <c r="AQ246" t="n">
         <v>2711.0</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>2619.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B247" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -33193,14 +33929,17 @@
       </c>
       <c r="AQ247" t="n">
         <v>8.0</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B248" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -33324,14 +34063,17 @@
       </c>
       <c r="AQ248" t="n">
         <v>232.0</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>238.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B249" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -33455,14 +34197,17 @@
       </c>
       <c r="AQ249" t="n">
         <v>1999.0</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>2177.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B250" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -33586,14 +34331,17 @@
       </c>
       <c r="AQ250" t="n">
         <v>286.0</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>256.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B251" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -33717,14 +34465,17 @@
       </c>
       <c r="AQ251" t="n">
         <v>75.0</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B252" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -33848,14 +34599,17 @@
       </c>
       <c r="AQ252" t="n">
         <v>301.0</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>345.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B253" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -33978,15 +34732,18 @@
         <v>846.0</v>
       </c>
       <c r="AQ253" t="n">
+        <v>837.0</v>
+      </c>
+      <c r="AR253" t="n">
         <v>837.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B254" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -34110,14 +34867,17 @@
       </c>
       <c r="AQ254" t="n">
         <v>23.0</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B255" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -34241,14 +35001,17 @@
       </c>
       <c r="AQ255" t="n">
         <v>61.0</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B256" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -34372,14 +35135,17 @@
       </c>
       <c r="AQ256" t="n">
         <v>268.0</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>301.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B257" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -34503,14 +35269,17 @@
       </c>
       <c r="AQ257" t="n">
         <v>183.0</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>146.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B258" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -34553,13 +35322,14 @@
       <c r="AO258"/>
       <c r="AP258"/>
       <c r="AQ258"/>
+      <c r="AR258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B259" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -34602,13 +35372,14 @@
       <c r="AO259"/>
       <c r="AP259"/>
       <c r="AQ259"/>
+      <c r="AR259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B260" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -34651,13 +35422,14 @@
       <c r="AO260"/>
       <c r="AP260"/>
       <c r="AQ260"/>
+      <c r="AR260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B261" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -34700,13 +35472,14 @@
       <c r="AO261"/>
       <c r="AP261"/>
       <c r="AQ261"/>
+      <c r="AR261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B262" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -34749,13 +35522,14 @@
       <c r="AO262"/>
       <c r="AP262"/>
       <c r="AQ262"/>
+      <c r="AR262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B263" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -34798,13 +35572,14 @@
       <c r="AO263"/>
       <c r="AP263"/>
       <c r="AQ263"/>
+      <c r="AR263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B264" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -34847,13 +35622,14 @@
       <c r="AO264"/>
       <c r="AP264"/>
       <c r="AQ264"/>
+      <c r="AR264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B265" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -34896,13 +35672,14 @@
       <c r="AO265"/>
       <c r="AP265"/>
       <c r="AQ265"/>
+      <c r="AR265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B266" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -34945,13 +35722,14 @@
       <c r="AO266"/>
       <c r="AP266"/>
       <c r="AQ266"/>
+      <c r="AR266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B267" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -34994,13 +35772,14 @@
       <c r="AO267"/>
       <c r="AP267"/>
       <c r="AQ267"/>
+      <c r="AR267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B268" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -35043,13 +35822,14 @@
       <c r="AO268"/>
       <c r="AP268"/>
       <c r="AQ268"/>
+      <c r="AR268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B269" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -35092,13 +35872,14 @@
       <c r="AO269"/>
       <c r="AP269"/>
       <c r="AQ269"/>
+      <c r="AR269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B270" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -35141,13 +35922,14 @@
       <c r="AO270"/>
       <c r="AP270"/>
       <c r="AQ270"/>
+      <c r="AR270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B271" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -35190,13 +35972,14 @@
       <c r="AO271"/>
       <c r="AP271"/>
       <c r="AQ271"/>
+      <c r="AR271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B272" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -35239,13 +36022,14 @@
       <c r="AO272"/>
       <c r="AP272"/>
       <c r="AQ272"/>
+      <c r="AR272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B273" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -35288,13 +36072,14 @@
       <c r="AO273"/>
       <c r="AP273"/>
       <c r="AQ273"/>
+      <c r="AR273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B274" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -35337,13 +36122,14 @@
       <c r="AO274"/>
       <c r="AP274"/>
       <c r="AQ274"/>
+      <c r="AR274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B275" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -35386,13 +36172,14 @@
       <c r="AO275"/>
       <c r="AP275"/>
       <c r="AQ275"/>
+      <c r="AR275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B276" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -35435,13 +36222,14 @@
       <c r="AO276"/>
       <c r="AP276"/>
       <c r="AQ276"/>
+      <c r="AR276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B277" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -35484,13 +36272,14 @@
       <c r="AO277"/>
       <c r="AP277"/>
       <c r="AQ277"/>
+      <c r="AR277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B278" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -35533,13 +36322,14 @@
       <c r="AO278"/>
       <c r="AP278"/>
       <c r="AQ278"/>
+      <c r="AR278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B279" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -35582,6 +36372,7 @@
       <c r="AO279"/>
       <c r="AP279"/>
       <c r="AQ279"/>
+      <c r="AR279"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
